--- a/biology/Zoologie/Eurema_zelia/Eurema_zelia.xlsx
+++ b/biology/Zoologie/Eurema_zelia/Eurema_zelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurema zelia est une espèce de papillons de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Eurema présent en Afrique.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurema zelia a été décrit par Hippolyte Lucas en 1852 sous le nom initial de Terias zelia.
-Synonyme : Teriocolias zelia [1]..
-Sous-espèces
-Eurema zelia zelia en Bolivie,  au Pérou et en  Argentine.
-Eurema zelia andina (Forbes, 1928) au Pérou et au Chili.
-Eurema zelia mathani (Field, 1950) au Pérou.
-Eurema zelia  pacis (Röber, 1909)  au Pérou[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema zelia a été décrit par Hippolyte Lucas en 1852 sous le nom initial de Terias zelia.
+Synonyme : Teriocolias zelia ..
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurema zelia zelia en Bolivie,  au Pérou et en  Argentine.
+Eurema zelia andina (Forbes, 1928) au Pérou et au Chili.
+Eurema zelia mathani (Field, 1950) au Pérou.
+Eurema zelia  pacis (Röber, 1909)  au Pérou.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,14 +593,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,13 +624,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema zelia est présent en Bolivie, au Pérou, au Chili et en Argentine[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema zelia est présent en Bolivie, au Pérou, au Chili et en Argentine.
 Sur les autres projets Wikimedia :
 Eurema zelia, sur Wikimedia CommonsEurema zelia, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurema_zelia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurema_zelia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
